--- a/solutions/aws/cloud/onpremise-to-cloud-migration/delivery/test-plan.xlsx
+++ b/solutions/aws/cloud/onpremise-to-cloud-migration/delivery/test-plan.xlsx
@@ -207,10 +207,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>2</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1428750" cy="476250"/>
+    <ext cx="1143000" cy="285750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -218,62 +218,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>12</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1428750" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1905000" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -595,7 +539,7 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1"/>
     <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="60" customHeight="1"/>
+    <row r="3" ht="20" customHeight="1"/>
     <row r="4" ht="30" customHeight="1">
       <c r="B4" s="1" t="inlineStr">
         <is>
@@ -619,7 +563,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 06, 2025</t>
+          <t>November 13, 2025</t>
         </is>
       </c>
     </row>
@@ -638,7 +582,7 @@
     <row r="9">
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Purpose:</t>
+          <t>Customer Name:</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -661,9 +605,9 @@
     </row>
     <row r="11" ht="20" customHeight="1"/>
     <row r="12" ht="10" customHeight="1"/>
-    <row r="13" ht="60" customHeight="1"/>
+    <row r="13" ht="10" customHeight="1"/>
     <row r="14" ht="10" customHeight="1"/>
-    <row r="15" ht="60" customHeight="1"/>
+    <row r="15" ht="40" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -1113,7 +1057,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="26" customHeight="1">
+    <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
           <t>TST-MIG-005</t>
@@ -1195,7 +1139,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="26" customHeight="1">
+    <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
           <t>TST-MIG-006</t>
@@ -1277,7 +1221,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="26" customHeight="1">
+    <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
           <t>TST-MIG-007</t>
@@ -1359,7 +1303,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="26" customHeight="1">
+    <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
           <t>TST-MIG-008</t>
@@ -1441,7 +1385,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="26" customHeight="1">
+    <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
           <t>TST-MIG-009</t>
@@ -1523,7 +1467,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="26" customHeight="1">
+    <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
           <t>TST-MIG-010</t>
@@ -1605,7 +1549,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="26" customHeight="1">
+    <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
           <t>TST-MIG-011</t>
@@ -1687,7 +1631,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="26" customHeight="1">
+    <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
           <t>TST-MIG-012</t>
@@ -1769,7 +1713,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="26" customHeight="1">
+    <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
           <t>TST-MIG-013</t>
@@ -1851,7 +1795,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="26" customHeight="1">
+    <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
           <t>TST-MIG-014</t>
@@ -1933,7 +1877,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="26" customHeight="1">
+    <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
           <t>TST-MIG-015</t>
@@ -2015,7 +1959,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="26" customHeight="1">
+    <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
           <t>TST-MIG-016</t>
@@ -2097,7 +2041,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="26" customHeight="1">
+    <row r="18">
       <c r="A18" s="6" t="inlineStr">
         <is>
           <t>TST-MIG-017</t>
@@ -2179,7 +2123,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="26" customHeight="1">
+    <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
           <t>TST-MIG-018</t>
@@ -2261,7 +2205,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="26" customHeight="1">
+    <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
           <t>TST-MIG-019</t>
@@ -2343,7 +2287,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="26" customHeight="1">
+    <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
           <t>TST-MIG-020</t>
@@ -2425,7 +2369,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="26" customHeight="1">
+    <row r="22">
       <c r="A22" s="6" t="inlineStr">
         <is>
           <t>TST-MIG-021</t>
@@ -2507,7 +2451,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="26" customHeight="1">
+    <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
           <t>TST-MIG-022</t>
@@ -2589,7 +2533,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="26" customHeight="1">
+    <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
           <t>TST-MIG-023</t>
@@ -2671,7 +2615,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="26" customHeight="1">
+    <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
           <t>TST-MIG-024</t>
@@ -2753,7 +2697,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="26" customHeight="1">
+    <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
           <t>TST-MIG-025</t>
@@ -2835,7 +2779,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="26" customHeight="1">
+    <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
           <t>TST-MIG-026</t>
@@ -2917,7 +2861,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="26" customHeight="1">
+    <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
           <t>TST-MIG-027</t>

--- a/solutions/aws/cloud/onpremise-to-cloud-migration/delivery/test-plan.xlsx
+++ b/solutions/aws/cloud/onpremise-to-cloud-migration/delivery/test-plan.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 13, 2025</t>
+          <t>November 15, 2025</t>
         </is>
       </c>
     </row>
